--- a/uploads/imports.xlsx
+++ b/uploads/imports.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t xml:space="preserve">sku</t>
   </si>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Prepárate para la acción cooperativa más intensa en Helldrivers 2. Pilota tu vehículo a través de escenarios infernales llenos de enemigos despiadados, explosiones masivas y misiones trepidantes. Con un enfoque en el multijugador cooperativo, progresión de armas y habilidades, y un diseño de niveles frenético, esta secuela promete combates explosivos y diversión sin parar.</t>
   </si>
   <si>
-    <t xml:space="preserve">cover_helldrivers₂.jpg</t>
+    <t xml:space="preserve">cover_helldrivers_2.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Acción,Shooter,Multijugador</t>
@@ -130,7 +130,10 @@
     <t xml:space="preserve">Adéntrate en un Japón feudal lleno de demonios y guerreros en Nioh 3. Domina un sistema de combate profundo y estratégico mientras exploras paisajes impresionantes, te enfrentas a jefes desafiantes y descubres secretos ocultos. Con mecánicas refinadas, personalización de armas y habilidades, y una narrativa inmersiva, Nioh 3 ofrece una experiencia de acción-RPG intensa y gratificante.</t>
   </si>
   <si>
-    <t xml:space="preserve">cover_nioh₃.jpg</t>
+    <t xml:space="preserve">cover_nioh_3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nioh_3.mp4</t>
   </si>
   <si>
     <t xml:space="preserve">Acción</t>
@@ -270,7 +273,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -291,16 +294,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -437,7 +432,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -495,10 +490,10 @@
       <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -506,20 +501,20 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="n">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="n">
         <v>70</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="n">
@@ -531,10 +526,10 @@
       <c r="M2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -542,20 +537,20 @@
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="n">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="n">
@@ -567,10 +562,10 @@
       <c r="M3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -602,10 +597,10 @@
       <c r="M4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="O4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -616,20 +611,23 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F5" s="1" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>10</v>
@@ -637,25 +635,25 @@
       <c r="M5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="N5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>120</v>
@@ -672,25 +670,25 @@
       <c r="M6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="0" t="s">
+      <c r="N6" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="C7" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>20</v>
@@ -707,25 +705,25 @@
       <c r="M7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>43</v>
+      <c r="N7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="8" t="s">
         <v>51</v>
       </c>
+      <c r="C8" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>40</v>
@@ -742,23 +740,23 @@
       <c r="M8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="0" t="s">
+      <c r="N8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="1"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L13" s="9"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D18" s="8"/>
+      <c r="D18" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/uploads/imports.xlsx
+++ b/uploads/imports.xlsx
@@ -133,7 +133,7 @@
     <t xml:space="preserve">cover_nioh_3.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Nioh_3.mp4</t>
+    <t xml:space="preserve">nioh_3.mp4</t>
   </si>
   <si>
     <t xml:space="preserve">Acción</t>
@@ -273,7 +273,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -299,6 +299,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,7 +436,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -752,8 +756,11 @@
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F12" s="7"/>
+    </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L13" s="7"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D18" s="6"/>

--- a/uploads/imports.xlsx
+++ b/uploads/imports.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">platforms</t>
   </si>
   <si>
-    <t xml:space="preserve">P00010</t>
+    <t xml:space="preserve">P00011</t>
   </si>
   <si>
     <t xml:space="preserve">Donkey Kong Bananza</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Nintendo Switch</t>
   </si>
   <si>
-    <t xml:space="preserve">P00011</t>
+    <t xml:space="preserve">P00012</t>
   </si>
   <si>
     <t xml:space="preserve">Ghost of Yōtey</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">PC,PlayStation 5</t>
   </si>
   <si>
-    <t xml:space="preserve">P00012</t>
+    <t xml:space="preserve">P00013</t>
   </si>
   <si>
     <t xml:space="preserve">Helldrivers 2</t>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">PC,PlayStation 5,Xbox Series X</t>
   </si>
   <si>
-    <t xml:space="preserve">P00013</t>
+    <t xml:space="preserve">P00014</t>
   </si>
   <si>
     <t xml:space="preserve">Nioh 3</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">Acción</t>
   </si>
   <si>
-    <t xml:space="preserve">P00014</t>
+    <t xml:space="preserve">P00015</t>
   </si>
   <si>
     <t xml:space="preserve">Office 365</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">PC</t>
   </si>
   <si>
-    <t xml:space="preserve">P00015</t>
+    <t xml:space="preserve">P00016</t>
   </si>
   <si>
     <t xml:space="preserve">Terraria</t>
@@ -172,7 +172,7 @@
     <t xml:space="preserve">Aventura,Indie,Estrategia,Multijugador</t>
   </si>
   <si>
-    <t xml:space="preserve">P00016</t>
+    <t xml:space="preserve">P00017</t>
   </si>
   <si>
     <t xml:space="preserve">The Witcher 3: Wild Hunt</t>
@@ -273,7 +273,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -299,10 +299,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -436,7 +432,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -760,7 +756,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L13" s="8"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D18" s="6"/>

--- a/uploads/imports.xlsx
+++ b/uploads/imports.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t xml:space="preserve">sku</t>
   </si>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Acción,Shooter,Multijugador</t>
   </si>
   <si>
-    <t xml:space="preserve">PC,PlayStation 5,Xbox Series X</t>
+    <t xml:space="preserve">Steam,PlayStation 5,Xbox Series X</t>
   </si>
   <si>
     <t xml:space="preserve">P00014</t>
@@ -139,6 +139,9 @@
     <t xml:space="preserve">Acción</t>
   </si>
   <si>
+    <t xml:space="preserve">Steam,PlayStation 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">P00015</t>
   </si>
   <si>
@@ -154,7 +157,7 @@
     <t xml:space="preserve">Productividad</t>
   </si>
   <si>
-    <t xml:space="preserve">PC</t>
+    <t xml:space="preserve">Software</t>
   </si>
   <si>
     <t xml:space="preserve">P00016</t>
@@ -170,6 +173,9 @@
   </si>
   <si>
     <t xml:space="preserve">Aventura,Indie,Estrategia,Multijugador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steam</t>
   </si>
   <si>
     <t xml:space="preserve">P00017</t>
@@ -431,8 +437,8 @@
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -448,6 +454,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="24.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,21 +646,21 @@
         <v>38</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>120</v>
@@ -671,24 +678,24 @@
         <v>1</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>20</v>
@@ -706,24 +713,24 @@
         <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>40</v>
@@ -741,10 +748,10 @@
         <v>1</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/uploads/imports.xlsx
+++ b/uploads/imports.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t xml:space="preserve">sku</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t xml:space="preserve">Acción,Aventura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P00018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAAAAAAAAAA</t>
   </si>
 </sst>
 </file>
@@ -437,11 +443,11 @@
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.93"/>
@@ -454,7 +460,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="24.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,9 +761,36 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>9999</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>9999</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F12" s="7"/>

--- a/uploads/imports.xlsx
+++ b/uploads/imports.xlsx
@@ -10,17 +10,17 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="487">
   <si>
     <t xml:space="preserve">sku</t>
   </si>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Acción,RPG</t>
   </si>
   <si>
-    <t xml:space="preserve">PC,PlayStation 5</t>
+    <t xml:space="preserve">Steam,PlayStation 5</t>
   </si>
   <si>
     <t xml:space="preserve">P00013</t>
@@ -139,9 +139,6 @@
     <t xml:space="preserve">Acción</t>
   </si>
   <si>
-    <t xml:space="preserve">Steam,PlayStation 5</t>
-  </si>
-  <si>
     <t xml:space="preserve">P00015</t>
   </si>
   <si>
@@ -197,6 +194,1293 @@
   </si>
   <si>
     <t xml:space="preserve">AAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elden Ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un vasto mundo lleno de peligros y descubrimientos en las Tierras Intermedias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPG,Aventura,Acción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God of War Ragnarök</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kratos y Atreus deben viajar a cada uno de los Nueve Reinos en busca de respuestas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlayStation 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Legend of Zelda: Tears of the Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una aventura épica a través de la tierra y los cielos de Hyrule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-02-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-03-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aventura,Acción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyberpunk 2077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una historia de acción y aventura de mundo abierto ambientada en Night City.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPG,Shooter,Acción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baldur's Gate 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reúne a tu grupo y regresa a los Reinos Olvidados en una historia de compañerismo y traición.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPG,Estrategia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Dead Redemption 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur Morgan y la banda de Van der Linde son forajidos a la fuga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desafía al dios de los muertos mientras hackeas y cortas para salir del Inframundo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indie,Acción,RPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steam,Nintendo Switch,PlayStation 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hollow Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forja tu propio camino en Hollow Knight. Una aventura de acción clásica en 2D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indie,Plataformas,Acción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minecraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepara una aventura de posibilidades ilimitadas mientras construyes, excavas, combates monstruos y exploras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aventura,Indie,Multijugador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steam,Nintendo Switch,PlayStation 5,Xbox Series X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Theft Auto V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un joven estafador callejero, un ladrón de bancos retirado y un psicópata aterrador.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción,Aventura,Shooter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eres Geralt de Rivia, cazador de monstruos mercenario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPG,Acción,Aventura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steam,PlayStation 5,Xbox Series X,Nintendo Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Mario Odyssey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explora increíbles lugares lejos del Reino Champiñón con Mario y Cappy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plataformas,Aventura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overwatch 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overwatch 2 es un juego de acción por equipos gratuito y siempre activo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shooter,Multijugador,Acción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valorant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combina tu estilo y experiencia en un escenario global competitivo de 5 contra 5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shooter,Estrategia,Multijugador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">League of Legends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juego de estrategia por equipos en el que dos equipos de cinco campeones se enfrentan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrategia,RPG,Multijugador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortnite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sé el último jugador en pie en Battle Royale y Zero Build.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shooter,Acción,Multijugador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call of Duty: Modern Warfare II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Te da la bienvenida a la nueva era de Call of Duty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIFA 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Juego de Todos salta al campo con la Copa Mundial de la FIFA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports,Multijugador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBA 2K23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponte a la altura de las circunstancias y demuestra tu potencial en NBA 2K23.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stardew Valley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acabas de heredar la vieja parcela de tu abuelo en Stardew Valley.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indie,RPG,Estrategia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excava, lucha, explora, construye: ¡El mundo está al alcance de tu mano!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-02-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indie,Aventura,RPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resident Evil 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La supervivencia es solo el comienzo. Seis años después de la catástrofe biológica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción,Shooter,Aventura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Fantasy XVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un mundo épico de fantasía oscura donde el destino de la tierra lo deciden los poderosos Eikons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPG,Acción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este juego de rol de nueva generación ambientado entre las estrellas, crea cualquier personaje.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPG,Aventura,Shooter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steam,Xbox Series X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diablo IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La batalla eterna entre los Altos Cielos y los Infiernos Abrasadores continúa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPG,Acción,Multijugador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street Fighter 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Aquí llega el nuevo contendiente de Capcom! Street Fighter 6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción,Multijugador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortal Kombat 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descubre un renacido Universo Mortal Kombat creado por el Dios del Fuego Liu Kang.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forza Horizon 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Tu aventura definitiva en el horizonte te espera! Explora los vibrantes paisajes de México.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racing,Sports,Multijugador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gran Turismo 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gran Turismo 7 reúne las mejores características del simulador de conducción real.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racing,Sports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario Kart 8 Deluxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Disfruta de la versión definitiva de Mario Kart 8 en cualquier lugar y en cualquier momento!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racing,Multijugador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal Crossing: New Horizons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escapa a una isla desierta y crea tu propio paraíso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrategia,Indie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizon Forbidden West</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Únete a Aloy mientras se aventura en el Oeste Prohibido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción,Aventura,RPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spider-Man 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Spider-Men, Peter Parker y Miles Morales, regresan para una nueva y emocionante aventura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassin's Creed Mirage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experimenta la historia de Basim, un astuto ladrón callejero con visiones de pesadilla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción,Aventura,Sigilo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doom Eternal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los ejércitos del infierno han invadido la Tierra. Conviértete en el Slayer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shooter,Acción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekiro: Shadows Die Twice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eres el "lobo de un solo brazo", un guerrero desfigurado y caído en desgracia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloodborne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfréntate a tus pesadillas mientras buscas respuestas en la antigua ciudad de Yharnam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Souls III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mientras los fuegos se apagan y el mundo cae en ruinas, viaja a un universo lleno de enemigos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persona 5 Royal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponte la máscara de Joker y únete a los Ladrones Fantasma de Corazones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genshin Impact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embárcate en un viaje a través de Teyvat para encontrar a tu hermano perdido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Among Us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un juego de trabajo en equipo y traición en el espacio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indie,Estrategia,Multijugador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steam,Nintendo Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocket League</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fútbol y coches chocan en este híbrido de arcade de conducción y fútbol.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports,Racing,Multijugador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall Guys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Te damos la bienvenida a Fall Guys! Un juego masivo multijugador tipo party royale.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indie,Multijugador,Plataformas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuphead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuphead es un juego de acción clásico estilo "run and gun".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celeste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayuda a Madeline a sobrevivir a sus demonios internos en su viaje a la cima de la montaña Celeste.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indie,Plataformas,Aventura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead Cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explora un castillo en constante cambio y lucha contra sus guardianes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indie,Acción,Plataformas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slay the Spire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemos fusionado juegos de cartas y roguelikes para crear el mejor constructor de mazos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indie,Estrategia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factorio es un juego sobre la construcción y creación de fábricas automatizadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimWorld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un simulador de colonias de ciencia ficción dirigido por una IA narradora inteligente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subnautica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desciende a las profundidades de un mundo submarino alienígena lleno de maravillas y peligros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indie,Aventura,Supervivencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steam,PlayStation 5,Nintendo Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elden Ring (Standard Edition 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God of War Ragnarök (Standard Edition 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Legend of Zelda: Tears of the Kingdom (Standard Edition 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyberpunk 2077 (Standard Edition 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baldur's Gate 3 (Standard Edition 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Dead Redemption 2 (Standard Edition 6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hades (Standard Edition 7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hollow Knight (Standard Edition 8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minecraft (Standard Edition 9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Theft Auto V (Standard Edition 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Witcher 3: Wild Hunt (Standard Edition 11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Mario Odyssey (Standard Edition 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overwatch 2 (Standard Edition 13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valorant (Standard Edition 14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">League of Legends (Standard Edition 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortnite (Standard Edition 16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call of Duty: Modern Warfare II (Standard Edition 17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIFA 23 (Standard Edition 18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBA 2K23 (Standard Edition 19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stardew Valley (Standard Edition 20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terraria (Standard Edition 21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resident Evil 4 (Standard Edition 22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Fantasy XVI (Standard Edition 23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starfield (Standard Edition 24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diablo IV (Standard Edition 25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street Fighter 6 (Standard Edition 26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortal Kombat 1 (Standard Edition 27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forza Horizon 5 (Standard Edition 28)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gran Turismo 7 (Standard Edition 29)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario Kart 8 Deluxe (Standard Edition 30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal Crossing: New Horizons (Standard Edition 31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizon Forbidden West (Standard Edition 32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spider-Man 2 (Standard Edition 33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassin's Creed Mirage (Standard Edition 34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doom Eternal (Standard Edition 35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekiro: Shadows Die Twice (Standard Edition 36)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloodborne (Standard Edition 37)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Souls III (Standard Edition 38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persona 5 Royal (Standard Edition 39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genshin Impact (Standard Edition 40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Among Us (Standard Edition 41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocket League (Standard Edition 42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall Guys (Standard Edition 43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuphead (Standard Edition 44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celeste (Standard Edition 45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead Cells (Standard Edition 46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slay the Spire (Standard Edition 47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factorio (Standard Edition 48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimWorld (Standard Edition 49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-00118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subnautica (Standard Edition 50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWR-00119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adobe Photoshop 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El software de edición de imágenes y diseño gráfico líder en el mundo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWR-00120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Office Home &amp; Student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las aplicaciones clásicas de Office para estudiantes y familias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWR-00121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norton 360 Deluxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protección integral contra malware para hasta 5 dispositivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWR-00122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL Studio 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El camino más rápido desde tu cerebro hasta tus altavoces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWR-00123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autodesk AutoCAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software de diseño asistido por computadora (CAD) para arquitectura e ingeniería.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWR-00124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosetta Stone: Learn English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El método más efectivo para aprender un nuevo idioma desde casa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWR-00125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TurboTax Deluxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haz tus impuestos correctamente y obtén tu máximo reembolso garantizado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-02-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWR-00126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Cut Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edición de video profesional acelerada por hardware de Apple.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWR-00127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ableton Live 11 Suite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software rápido y fluido para la creación y la interpretación musical.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWR-00128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaspersky Total Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuestra mejor seguridad para proteger a tu familia en todos los dispositivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-03</t>
   </si>
 </sst>
 </file>
@@ -206,11 +1490,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -231,15 +1516,9 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -285,12 +1564,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -302,7 +1581,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -310,11 +1589,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -331,7 +1606,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
@@ -388,25 +1663,58 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -424,12 +1732,48 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -441,13 +1785,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.93"/>
@@ -463,7 +1807,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.62"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -542,7 +1886,7 @@
       <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -578,11 +1922,11 @@
       <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -617,14 +1961,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -651,22 +1995,22 @@
       <c r="N5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>120</v>
@@ -684,24 +2028,24 @@
         <v>1</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="1" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>20</v>
@@ -719,24 +2063,24 @@
         <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="6" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>40</v>
@@ -754,20 +2098,20 @@
         <v>1</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="1" t="n">
         <v>9999</v>
       </c>
       <c r="F9" s="1" t="n">
@@ -786,21 +2130,3784 @@
         <v>1</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L13" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D18" s="6"/>
-    </row>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>70.4</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>70.22</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>53.41</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>67.23</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>64.06</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>68.17</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>56.91</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>58.43</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>75.59</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>63.61</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>47.99</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>61.87</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>64.55</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>42.52</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>67.15</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>67.05</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>43.78</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>69.77</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>76.74</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>40.47</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>58.71</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>27.15</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>78.43</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>62.76</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>70.46</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>39.08</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>64.66</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>46.39</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>42.58</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>44.55</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="M53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>58.19</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>67.08</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="M56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>67.99</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="M58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>43.88</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>40.89</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="M61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>46.01</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="M62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>33.44</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="M63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>69.56</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="M64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>68.15</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O65" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O66" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>51.16</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="M68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>66.82</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="M70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>62.55</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>68.98</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="M73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>35.92</v>
+      </c>
+      <c r="G74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="M74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>46.93</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="M75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O75" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>37.44</v>
+      </c>
+      <c r="G76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>78.39</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="M77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="M78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>65.88</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="M79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>48.29</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>35.14</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="M81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="G82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="M82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O82" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="G83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="M83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="M84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O84" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>55.14</v>
+      </c>
+      <c r="G85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="M85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O85" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>75.91</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O86" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="M87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O87" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="M88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O88" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>50.02</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="M89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O89" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="G90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="M90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O90" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="G91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O91" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>69.22</v>
+      </c>
+      <c r="G92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="M92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O92" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="G93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M93" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O93" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="G94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="M94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O94" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>26.02</v>
+      </c>
+      <c r="G95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="M95" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O95" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>48.66</v>
+      </c>
+      <c r="G96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="M96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O96" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="G97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="M97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O97" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="G98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M98" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O98" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>64.1</v>
+      </c>
+      <c r="G99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="M99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O99" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>68.14</v>
+      </c>
+      <c r="G100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O100" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="G101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="M101" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O101" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>57.45</v>
+      </c>
+      <c r="G102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="O102" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>40.02</v>
+      </c>
+      <c r="G103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="M103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O103" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>40.83</v>
+      </c>
+      <c r="G104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="M104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O104" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>54.56</v>
+      </c>
+      <c r="G105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="M105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="O105" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>58.82</v>
+      </c>
+      <c r="G106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="M106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="O106" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="G107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="M107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="O107" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="G108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="O108" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>72.62</v>
+      </c>
+      <c r="G109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="M109" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="O109" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>133.45</v>
+      </c>
+      <c r="G110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="M110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O110" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>133.97</v>
+      </c>
+      <c r="G111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="M111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O111" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>104.78</v>
+      </c>
+      <c r="G112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="M112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O112" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>151.79</v>
+      </c>
+      <c r="G113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="M113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O113" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>57.17</v>
+      </c>
+      <c r="G114" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="M114" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O114" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>60.64</v>
+      </c>
+      <c r="G115" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="M115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O115" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>108.58</v>
+      </c>
+      <c r="G116" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="M116" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O116" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>168.84</v>
+      </c>
+      <c r="G117" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="M117" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O117" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>54.12</v>
+      </c>
+      <c r="G118" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="M118" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O118" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>170.11</v>
+      </c>
+      <c r="G119" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="M119" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O119" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
